--- a/Индексы.xlsx
+++ b/Индексы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Андрей\Source\Repos\LS_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\LS_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,16 +427,16 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2">
         <f xml:space="preserve"> StartPoint + PointCount - 1</f>
-        <v>139</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -458,11 +458,11 @@
       </c>
       <c r="C8">
         <f>(StartPoint - 1) * 3 +1</f>
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f>(StartPoint - 1) *4 +1</f>
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -471,11 +471,11 @@
       </c>
       <c r="C9">
         <f>C8-1</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f>D8-1</f>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -483,12 +483,12 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <f>C9 +PointCount*3</f>
-        <v>417</v>
+        <f>C8 +PointCount*3 - 1</f>
+        <v>6</v>
       </c>
       <c r="D10">
-        <f>D9 +PointCount*4</f>
-        <v>556</v>
+        <f>D8 +PointCount*4-1</f>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -497,11 +497,11 @@
       </c>
       <c r="C11">
         <f>C10-1</f>
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <f>D10-1</f>
-        <v>555</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -510,11 +510,11 @@
       </c>
       <c r="C12">
         <f>PointCount * 3</f>
-        <v>267</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <f>PointCount * 4</f>
-        <v>356</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
